--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2674187.674254528</v>
+        <v>-2677106.890369681</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.018462044011843</v>
       </c>
       <c r="G2" t="n">
         <v>4.562286607642875</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D3" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,11 +826,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.018462044011844</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.27738790031055</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.93890542723723</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>5.401342158599112</v>
+      </c>
+      <c r="S5" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,14 +972,14 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
@@ -990,11 +990,11 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>12.27738790031055</v>
+      </c>
+      <c r="I6" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="I6" t="n">
-        <v>12.27738790031055</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,38 +1066,38 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="J7" t="n">
-        <v>13.93890542723723</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128.1180882049803</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>67.19621832103392</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>128.1180882049803</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.32208670240188</v>
+        <v>13.32208670240187</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>25.45206132579943</v>
+        <v>25.45206132579865</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>67.19621832103734</v>
       </c>
       <c r="U8" t="n">
-        <v>128.1180882049803</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>128.1180882049803</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>112.8464120909467</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>128.1180882049803</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>128.1180882049803</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>112.8464120909493</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
     </row>
     <row r="10">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="D10" t="n">
-        <v>112.8464120909467</v>
+        <v>82.30077198973906</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>128.1180882049803</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54564010121024</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>128.1180882049803</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>128.1180882049803</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>141.1762660121938</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>105.2845941643066</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>57.97675627224596</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>217.3887619279222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>206.1757814966973</v>
       </c>
       <c r="H14" t="n">
-        <v>238.8047027916316</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>91.9303487751657</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>161.5256011474347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.49528721253225</v>
       </c>
       <c r="I16" t="n">
         <v>86.13649374674407</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187933</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2008,7 +2008,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943565</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2084,7 +2084,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684687</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
         <v>350.3201677200478</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221648</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
         <v>219.3243840645688</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038391</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221648</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424839</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401422</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297247</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424821</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3199,10 +3199,10 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442993</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
         <v>54.52629139453015</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221648</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
         <v>186.4872700401421</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684696</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3323,16 +3323,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.823760294353</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401421</v>
@@ -3487,7 +3487,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998809</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3560,16 +3560,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401421</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200485</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3961,7 +3961,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998809</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4040,7 +4040,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262555</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4189,7 +4189,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="C2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E2" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F2" t="n">
         <v>4.973353239361809</v>
@@ -4328,10 +4328,10 @@
         <v>0.36498292861143</v>
       </c>
       <c r="J2" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K2" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="L2" t="n">
         <v>9.215818947438606</v>
@@ -4364,16 +4364,16 @@
         <v>18.2491464305715</v>
       </c>
       <c r="V2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="X2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C3" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D3" t="n">
         <v>4.973353239361809</v>
@@ -4413,10 +4413,10 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L3" t="n">
-        <v>4.69915520587216</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M3" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N3" t="n">
         <v>13.73248268900505</v>
@@ -4434,25 +4434,25 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S3" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T3" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U3" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V3" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W3" t="n">
         <v>13.64077611982112</v>
       </c>
       <c r="X3" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.973353239361809</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C4" t="n">
         <v>4.973353239361809</v>
@@ -4474,7 +4474,7 @@
         <v>4.973353239361809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G4" t="n">
         <v>0.36498292861143</v>
@@ -4489,49 +4489,49 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K4" t="n">
-        <v>4.69915520587216</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L4" t="n">
-        <v>9.215818947438606</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M4" t="n">
+        <v>9.398310411744323</v>
+      </c>
+      <c r="N4" t="n">
         <v>13.73248268900505</v>
       </c>
-      <c r="N4" t="n">
-        <v>18.2491464305715</v>
-      </c>
       <c r="O4" t="n">
-        <v>18.2491464305715</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P4" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.19009386086257</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="R4" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S4" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T4" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U4" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V4" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W4" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X4" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
       <c r="C5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
       <c r="D5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
       <c r="E5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
       <c r="F5" t="n">
+        <v>29.27451733768853</v>
+      </c>
+      <c r="G5" t="n">
         <v>15.19481488593376</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.115112434178978</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.115112434178978</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="I5" t="n">
         <v>1.115112434178978</v>
@@ -4568,7 +4568,7 @@
         <v>1.115112434178978</v>
       </c>
       <c r="K5" t="n">
-        <v>1.115112434178978</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="L5" t="n">
         <v>14.91462880714383</v>
@@ -4583,34 +4583,34 @@
         <v>41.95610533598406</v>
       </c>
       <c r="P5" t="n">
-        <v>41.95610533598406</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Q5" t="n">
         <v>55.75562170894892</v>
       </c>
       <c r="R5" t="n">
-        <v>41.67591925719414</v>
+        <v>50.29972053864678</v>
       </c>
       <c r="S5" t="n">
-        <v>41.67591925719414</v>
+        <v>36.220018086892</v>
       </c>
       <c r="T5" t="n">
-        <v>41.67591925719414</v>
+        <v>36.220018086892</v>
       </c>
       <c r="U5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
       <c r="V5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
       <c r="W5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
       <c r="X5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.59621680543936</v>
+        <v>36.220018086892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.59621680543936</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="C6" t="n">
-        <v>27.59621680543936</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="D6" t="n">
         <v>27.59621680543936</v>
@@ -4638,7 +4638,7 @@
         <v>27.59621680543936</v>
       </c>
       <c r="H6" t="n">
-        <v>13.51651435368458</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="I6" t="n">
         <v>1.115112434178978</v>
@@ -4668,25 +4668,25 @@
         <v>55.75562170894892</v>
       </c>
       <c r="R6" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="S6" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="T6" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="U6" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="V6" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="W6" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="X6" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="Y6" t="n">
         <v>41.67591925719414</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.27451733768853</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="C7" t="n">
-        <v>29.27451733768853</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="D7" t="n">
-        <v>29.27451733768853</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="E7" t="n">
-        <v>29.27451733768853</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="F7" t="n">
-        <v>29.27451733768853</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="G7" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="H7" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="I7" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="J7" t="n">
         <v>1.115112434178978</v>
       </c>
       <c r="K7" t="n">
-        <v>1.115112434178978</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="L7" t="n">
-        <v>1.115112434178978</v>
+        <v>28.15658896301921</v>
       </c>
       <c r="M7" t="n">
-        <v>14.35707259005435</v>
+        <v>28.15658896301921</v>
       </c>
       <c r="N7" t="n">
         <v>28.15658896301921</v>
@@ -4744,31 +4744,31 @@
         <v>55.75562170894892</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="S7" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="T7" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="U7" t="n">
-        <v>43.35421978944331</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="V7" t="n">
-        <v>29.27451733768853</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="W7" t="n">
-        <v>29.27451733768853</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="X7" t="n">
-        <v>29.27451733768853</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.27451733768853</v>
+        <v>41.67591925719414</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.9387793494566</v>
+        <v>160.0638113484155</v>
       </c>
       <c r="C8" t="n">
-        <v>160.0638113484122</v>
+        <v>160.0638113484155</v>
       </c>
       <c r="D8" t="n">
-        <v>30.65160104035127</v>
+        <v>160.0638113484155</v>
       </c>
       <c r="E8" t="n">
-        <v>30.65160104035127</v>
+        <v>30.6516010403515</v>
       </c>
       <c r="F8" t="n">
-        <v>23.7061002911478</v>
+        <v>23.70610029114803</v>
       </c>
       <c r="G8" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="H8" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="I8" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="J8" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="K8" t="n">
-        <v>41.78724323387291</v>
+        <v>41.7872432338749</v>
       </c>
       <c r="L8" t="n">
-        <v>117.8144300126721</v>
+        <v>117.814430012676</v>
       </c>
       <c r="M8" t="n">
-        <v>234.0787616187927</v>
+        <v>234.0787616187986</v>
       </c>
       <c r="N8" t="n">
-        <v>356.8381800397496</v>
+        <v>356.8381800397577</v>
       </c>
       <c r="O8" t="n">
-        <v>459.4211565599373</v>
+        <v>459.4211565599475</v>
       </c>
       <c r="P8" t="n">
-        <v>512.4723528199213</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.4723528199213</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="R8" t="n">
-        <v>486.7631999655785</v>
+        <v>486.7631999655913</v>
       </c>
       <c r="S8" t="n">
-        <v>486.7631999655785</v>
+        <v>486.7631999655913</v>
       </c>
       <c r="T8" t="n">
-        <v>486.7631999655785</v>
+        <v>418.8882319645435</v>
       </c>
       <c r="U8" t="n">
-        <v>357.3509896575175</v>
+        <v>289.4760216564795</v>
       </c>
       <c r="V8" t="n">
-        <v>357.3509896575175</v>
+        <v>289.4760216564795</v>
       </c>
       <c r="W8" t="n">
-        <v>357.3509896575175</v>
+        <v>289.4760216564795</v>
       </c>
       <c r="X8" t="n">
-        <v>357.3509896575175</v>
+        <v>289.4760216564795</v>
       </c>
       <c r="Y8" t="n">
-        <v>357.3509896575175</v>
+        <v>160.0638113484155</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139.6616573644594</v>
+        <v>139.6616573644627</v>
       </c>
       <c r="C9" t="n">
-        <v>139.6616573644594</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="D9" t="n">
-        <v>139.6616573644594</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="E9" t="n">
-        <v>139.6616573644594</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="F9" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="G9" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="H9" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="I9" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="J9" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="K9" t="n">
-        <v>43.20020251626399</v>
+        <v>43.2002025162653</v>
       </c>
       <c r="L9" t="n">
-        <v>133.8291007629967</v>
+        <v>133.8291007629995</v>
       </c>
       <c r="M9" t="n">
-        <v>209.4817716762039</v>
+        <v>258.9456185002363</v>
       </c>
       <c r="N9" t="n">
-        <v>336.3186789991345</v>
+        <v>385.7825258231697</v>
       </c>
       <c r="O9" t="n">
-        <v>444.7664898929867</v>
+        <v>494.2303367170236</v>
       </c>
       <c r="P9" t="n">
-        <v>512.4723528199213</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.4723528199213</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="R9" t="n">
-        <v>512.4723528199213</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="S9" t="n">
-        <v>512.4723528199213</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="T9" t="n">
-        <v>398.4860779805812</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="U9" t="n">
-        <v>269.0738676725203</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="V9" t="n">
-        <v>139.6616573644594</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="W9" t="n">
-        <v>139.6616573644594</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="X9" t="n">
-        <v>139.6616573644594</v>
+        <v>398.4860779805906</v>
       </c>
       <c r="Y9" t="n">
-        <v>139.6616573644594</v>
+        <v>269.0738676725266</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>253.6479322037994</v>
+        <v>383.0601425118693</v>
       </c>
       <c r="C10" t="n">
-        <v>253.6479322037994</v>
+        <v>253.6479322038054</v>
       </c>
       <c r="D10" t="n">
-        <v>139.6616573644594</v>
+        <v>170.515839284877</v>
       </c>
       <c r="E10" t="n">
-        <v>139.6616573644594</v>
+        <v>41.10362897681305</v>
       </c>
       <c r="F10" t="n">
-        <v>139.6616573644594</v>
+        <v>41.10362897681305</v>
       </c>
       <c r="G10" t="n">
-        <v>10.24944705639843</v>
+        <v>41.10362897681305</v>
       </c>
       <c r="H10" t="n">
-        <v>10.24944705639843</v>
+        <v>41.10362897681305</v>
       </c>
       <c r="I10" t="n">
-        <v>10.24944705639843</v>
+        <v>41.10362897681305</v>
       </c>
       <c r="J10" t="n">
-        <v>10.24944705639843</v>
+        <v>10.24944705639867</v>
       </c>
       <c r="K10" t="n">
-        <v>90.39237253319382</v>
+        <v>90.39237253319472</v>
       </c>
       <c r="L10" t="n">
-        <v>90.39237253319382</v>
+        <v>217.2292798561282</v>
       </c>
       <c r="M10" t="n">
-        <v>155.1131035783168</v>
+        <v>273.7609223868644</v>
       </c>
       <c r="N10" t="n">
-        <v>281.9500109012473</v>
+        <v>281.9500109012557</v>
       </c>
       <c r="O10" t="n">
-        <v>408.7869182241778</v>
+        <v>408.7869182241892</v>
       </c>
       <c r="P10" t="n">
-        <v>512.4723528199213</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="Q10" t="n">
-        <v>512.4723528199213</v>
+        <v>512.4723528199333</v>
       </c>
       <c r="R10" t="n">
-        <v>512.4723528199213</v>
+        <v>383.0601425118693</v>
       </c>
       <c r="S10" t="n">
-        <v>512.4723528199213</v>
+        <v>383.0601425118693</v>
       </c>
       <c r="T10" t="n">
-        <v>512.4723528199213</v>
+        <v>383.0601425118693</v>
       </c>
       <c r="U10" t="n">
-        <v>512.4723528199213</v>
+        <v>383.0601425118693</v>
       </c>
       <c r="V10" t="n">
-        <v>383.0601425118604</v>
+        <v>383.0601425118693</v>
       </c>
       <c r="W10" t="n">
-        <v>253.6479322037994</v>
+        <v>383.0601425118693</v>
       </c>
       <c r="X10" t="n">
-        <v>253.6479322037994</v>
+        <v>383.0601425118693</v>
       </c>
       <c r="Y10" t="n">
-        <v>253.6479322037994</v>
+        <v>383.0601425118693</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>1795.666214589423</v>
       </c>
       <c r="C11" t="n">
-        <v>779.1681669784198</v>
+        <v>1426.703697649011</v>
       </c>
       <c r="D11" t="n">
-        <v>779.1681669784198</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>779.1681669784198</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810557</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,22 +5136,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>478.9911633238872</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C13" t="n">
-        <v>310.0549803959803</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="D13" t="n">
-        <v>310.0549803959803</v>
+        <v>440.6904267128333</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959803</v>
+        <v>292.7773331304402</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>292.7773331304402</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>125.0744965051591</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,10 +5218,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
         <v>1645.778206672847</v>
@@ -5233,16 +5233,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>660.639628154127</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>660.639628154127</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y13" t="n">
-        <v>660.639628154127</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.026662509058</v>
+        <v>2119.49594171793</v>
       </c>
       <c r="C14" t="n">
-        <v>1497.064145568647</v>
+        <v>1750.533424777519</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.798446961896</v>
+        <v>1392.267726170768</v>
       </c>
       <c r="E14" t="n">
-        <v>753.0101943636519</v>
+        <v>1006.479473572524</v>
       </c>
       <c r="F14" t="n">
-        <v>753.0101943636519</v>
+        <v>595.4935687829163</v>
       </c>
       <c r="G14" t="n">
-        <v>338.7027131747996</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
         <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632628</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423757</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080186</v>
+        <v>3622.469527289058</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.231592810072</v>
+        <v>3269.700872018944</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.765834548992</v>
+        <v>2896.235113757864</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.62650257318</v>
+        <v>2506.095781782052</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.1441411914584</v>
+        <v>516.7926060216986</v>
       </c>
       <c r="C16" t="n">
-        <v>171.9869683152617</v>
+        <v>347.8564230937917</v>
       </c>
       <c r="D16" t="n">
-        <v>171.9869683152617</v>
+        <v>197.739783681456</v>
       </c>
       <c r="E16" t="n">
-        <v>171.9869683152617</v>
+        <v>197.739783681456</v>
       </c>
       <c r="F16" t="n">
-        <v>171.9869683152617</v>
+        <v>197.739783681456</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9869683152617</v>
+        <v>197.739783681456</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152617</v>
+        <v>171.9869683152618</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711514</v>
+        <v>1553.248699711515</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5467,19 +5467,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306093</v>
+        <v>1509.676394306094</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100206</v>
+        <v>1254.991906100207</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632456</v>
+        <v>965.5747360632461</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652283</v>
+        <v>737.5851851652287</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.7926060216981</v>
+        <v>516.7926060216986</v>
       </c>
     </row>
     <row r="17">
@@ -5513,7 +5513,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
         <v>766.683188695145</v>
@@ -5522,10 +5522,10 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
@@ -5586,7 +5586,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
@@ -5595,22 +5595,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334502</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.315654538067</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477731</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060906</v>
       </c>
       <c r="E19" t="n">
         <v>501.6849958039802</v>
@@ -5671,52 +5671,52 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,10 +5750,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,7 +5762,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5777,13 +5777,13 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
         <v>3496.71823738206</v>
@@ -5823,13 +5823,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
         <v>519.5985603334505</v>
@@ -5841,16 +5841,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5911,7 +5911,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L22" t="n">
         <v>857.3827676902788</v>
@@ -5926,10 +5926,10 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
         <v>2487.049233352543</v>
@@ -5969,28 +5969,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,19 +5999,19 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
         <v>4188.091007924547</v>
@@ -6020,19 +6020,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
         <v>216.557510983586</v>
@@ -6075,16 +6075,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6136,13 +6136,13 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6151,22 +6151,22 @@
         <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
@@ -6175,16 +6175,16 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
@@ -6209,13 +6209,13 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6224,10 +6224,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,7 +6236,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6251,10 +6251,10 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400161</v>
@@ -6297,25 +6297,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I27" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334505</v>
+        <v>388.0214583249808</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277778</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M27" t="n">
-        <v>1381.83934483395</v>
+        <v>875.4343898856998</v>
       </c>
       <c r="N27" t="n">
-        <v>1959.694692760353</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O27" t="n">
         <v>1959.694692760353</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6385,13 +6385,13 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
@@ -6412,19 +6412,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796667</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951456</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
@@ -6485,28 +6485,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>93.82973291098807</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>396.8707822608525</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>850.66941185518</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966197</v>
@@ -6661,7 +6661,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254982</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
         <v>1104.234664943805</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6771,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
         <v>519.5985603334505</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609044</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G34" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902788</v>
@@ -6880,25 +6880,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511625</v>
@@ -6935,10 +6935,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,7 +6950,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
@@ -6965,7 +6965,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
         <v>3795.851627400163</v>
@@ -7023,19 +7023,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502083</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C37" t="n">
-        <v>735.85573414777</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609028</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897932</v>
@@ -7093,52 +7093,52 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042791</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443619</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902794</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076836</v>
@@ -7193,31 +7193,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902808</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1458.093420216583</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7421,7 +7421,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7500,10 +7500,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D43" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
@@ -7570,10 +7570,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7582,10 +7582,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7612,7 +7612,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076825</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951438</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334505</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277778</v>
+        <v>301.7509472448909</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>850.66941185518</v>
       </c>
       <c r="N45" t="n">
-        <v>1934.929714729833</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O45" t="n">
         <v>1934.929714729833</v>
@@ -7795,22 +7795,22 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7840,10 +7840,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K2" t="n">
-        <v>53.28984570098882</v>
+        <v>57.66779749620168</v>
       </c>
       <c r="L2" t="n">
-        <v>33.21421067057256</v>
+        <v>33.39854548300258</v>
       </c>
       <c r="M2" t="n">
         <v>0.09656339947136416</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>65.05352634584477</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
         <v>51.99825569640058</v>
@@ -8146,13 +8146,13 @@
         <v>51.285670034278</v>
       </c>
       <c r="N4" t="n">
-        <v>42.23779755379654</v>
+        <v>42.05346274136652</v>
       </c>
       <c r="O4" t="n">
         <v>55.31770395088348</v>
       </c>
       <c r="P4" t="n">
-        <v>66.5883684560963</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,10 +8216,10 @@
         <v>65.29236085646851</v>
       </c>
       <c r="K5" t="n">
-        <v>46.60529509404799</v>
+        <v>60.54420052128522</v>
       </c>
       <c r="L5" t="n">
-        <v>34.48238818628893</v>
+        <v>20.5434827590517</v>
       </c>
       <c r="M5" t="n">
         <v>4.244969452351352</v>
@@ -8231,10 +8231,10 @@
         <v>0.3078477218925855</v>
       </c>
       <c r="P5" t="n">
-        <v>35.11223672545287</v>
+        <v>49.05114215269009</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.9660729197108</v>
+        <v>75.02716749247358</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8374,16 +8374,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>57.93692533070961</v>
+        <v>71.87583075794684</v>
       </c>
       <c r="L7" t="n">
-        <v>43.93144097118265</v>
+        <v>57.3071583003497</v>
       </c>
       <c r="M7" t="n">
-        <v>56.40406722691954</v>
+        <v>43.02834989775249</v>
       </c>
       <c r="N7" t="n">
-        <v>48.00724248301906</v>
+        <v>34.06833705578184</v>
       </c>
       <c r="O7" t="n">
         <v>65.92480045234983</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>12.94064260947405</v>
+        <v>12.94064260947297</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.417684420909978</v>
+        <v>8.417684420908614</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>26.71528430511037</v>
+        <v>26.71528430510975</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.706686945650375</v>
+        <v>4.706686945649523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>2.796128844840183</v>
+        <v>130.9142170498227</v>
       </c>
       <c r="M10" t="n">
-        <v>65.03140666002876</v>
+        <v>56.75960007983918</v>
       </c>
       <c r="N10" t="n">
-        <v>119.8462816247879</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>140.9960076314399</v>
+        <v>140.9960076314421</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>377.3680834646189</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.857583697699593</v>
+        <v>2.313759134068562</v>
       </c>
       <c r="G2" t="n">
-        <v>9.429168768844599</v>
+        <v>409.4291687688446</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.7727730075568</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>190.684681035809</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0966257588138</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>249.3984474563764</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>86.77825864207482</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>69.13423640866884</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>203.9886248802665</v>
       </c>
       <c r="H14" t="n">
-        <v>48.0471655553383</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>5.721219951193149</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>116.2394204839814</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.167288500859465e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.316369318577927e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1354913.746578735</v>
+        <v>1354913.746578734</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1187418.982819898</v>
+        <v>1187418.982819899</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>19327.21330481902</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
         <v>17049.85494854603</v>
       </c>
       <c r="F2" t="n">
-        <v>19168.57954878276</v>
+        <v>19168.57954878275</v>
       </c>
       <c r="G2" t="n">
+        <v>20526.04424660706</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="I2" t="n">
         <v>20526.04424660711</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20526.04424660706</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20526.04424660707</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660706</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>14932.51778509076</v>
       </c>
       <c r="D3" t="n">
-        <v>166870.2121597722</v>
+        <v>166870.2121597758</v>
       </c>
       <c r="E3" t="n">
-        <v>689688.6865783569</v>
+        <v>689688.6865783538</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.109696308</v>
+        <v>215052.1096963081</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177115</v>
+        <v>25288.16188177116</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1193.694917170067</v>
+        <v>1193.694917170038</v>
       </c>
       <c r="K3" t="n">
-        <v>2413.241632361382</v>
+        <v>2413.241632361361</v>
       </c>
       <c r="L3" t="n">
-        <v>54185.88543017284</v>
+        <v>54185.88543017374</v>
       </c>
       <c r="M3" t="n">
-        <v>175261.028239039</v>
+        <v>175261.0282390383</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578632</v>
+        <v>56542.29359578629</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.105427357601002e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>324396.9375272356</v>
+        <v>324396.9375272355</v>
       </c>
       <c r="C4" t="n">
         <v>347394.561225959</v>
       </c>
       <c r="D4" t="n">
-        <v>296138.0947011761</v>
+        <v>296138.094701175</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26433,31 +26433,31 @@
         <v>42789.59501104696</v>
       </c>
       <c r="H4" t="n">
-        <v>42789.59501104689</v>
+        <v>42789.59501104696</v>
       </c>
       <c r="I4" t="n">
-        <v>42789.59501104693</v>
+        <v>42789.59501104695</v>
       </c>
       <c r="J4" t="n">
-        <v>42789.59501104693</v>
+        <v>42789.59501104691</v>
       </c>
       <c r="K4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.5950110469</v>
       </c>
       <c r="L4" t="n">
         <v>42789.59501104693</v>
       </c>
       <c r="M4" t="n">
-        <v>42789.59501104687</v>
+        <v>42789.59501104691</v>
       </c>
       <c r="N4" t="n">
-        <v>42789.59501104695</v>
+        <v>42789.59501104694</v>
       </c>
       <c r="O4" t="n">
         <v>42789.59501104691</v>
       </c>
       <c r="P4" t="n">
-        <v>42789.59501104694</v>
+        <v>42789.59501104696</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>41870.80590462394</v>
       </c>
       <c r="D5" t="n">
-        <v>52157.75395761163</v>
+        <v>52157.75395761187</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="M5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="N5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-661927.0618631417</v>
+        <v>-662046.9449573206</v>
       </c>
       <c r="C6" t="n">
         <v>-383671.8406690666</v>
       </c>
       <c r="D6" t="n">
-        <v>-494640.0165719528</v>
+        <v>-494640.0165719556</v>
       </c>
       <c r="E6" t="n">
-        <v>-758545.4071883325</v>
+        <v>-758893.0261181354</v>
       </c>
       <c r="F6" t="n">
-        <v>-300052.2360769592</v>
+        <v>-300187.9825467417</v>
       </c>
       <c r="G6" t="n">
-        <v>-142658.1467483663</v>
+        <v>-142658.1467483664</v>
       </c>
       <c r="H6" t="n">
+        <v>-117369.9848665952</v>
+      </c>
+      <c r="I6" t="n">
         <v>-117369.9848665951</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-117369.9848665952</v>
       </c>
       <c r="J6" t="n">
         <v>-118563.6797837652</v>
@@ -26549,10 +26549,10 @@
         <v>-119783.2264989565</v>
       </c>
       <c r="L6" t="n">
-        <v>-171555.870296768</v>
+        <v>-171555.8702967688</v>
       </c>
       <c r="M6" t="n">
-        <v>-292631.0131056341</v>
+        <v>-292631.0131056334</v>
       </c>
       <c r="N6" t="n">
         <v>-173912.2784623815</v>
@@ -26561,7 +26561,7 @@
         <v>-117369.9848665951</v>
       </c>
       <c r="P6" t="n">
-        <v>-117369.9848665952</v>
+        <v>-117369.984866595</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="J2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221391</v>
-      </c>
       <c r="K2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221395</v>
@@ -26741,7 +26741,7 @@
         <v>339.2532318645832</v>
       </c>
       <c r="D3" t="n">
-        <v>492.686889667377</v>
+        <v>492.6868896673801</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,10 +26793,10 @@
         <v>13.93890542723723</v>
       </c>
       <c r="D4" t="n">
-        <v>128.1180882049803</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>-7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.881784197001252e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>13.07179987599841</v>
       </c>
       <c r="D3" t="n">
-        <v>153.4336578027938</v>
+        <v>153.4336578027969</v>
       </c>
       <c r="E3" t="n">
-        <v>597.089810925921</v>
+        <v>597.0898109259182</v>
       </c>
       <c r="F3" t="n">
         <v>188.3831700268247</v>
@@ -27015,13 +27015,13 @@
         <v>9.376618819594354</v>
       </c>
       <c r="D4" t="n">
-        <v>114.1791827777431</v>
+        <v>114.1791827777461</v>
       </c>
       <c r="E4" t="n">
-        <v>703.2833671973124</v>
+        <v>703.2833671973094</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866603</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.562286607642818</v>
+        <v>4.562286607642591</v>
       </c>
       <c r="K4" t="n">
-        <v>9.376618819594341</v>
+        <v>9.376618819594581</v>
       </c>
       <c r="L4" t="n">
-        <v>114.1791827777428</v>
+        <v>114.1791827777461</v>
       </c>
       <c r="M4" t="n">
-        <v>703.2833671973126</v>
+        <v>703.2833671973095</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,13 +27261,13 @@
         <v>9.376618819594354</v>
       </c>
       <c r="L4" t="n">
-        <v>114.1791827777431</v>
+        <v>114.1791827777461</v>
       </c>
       <c r="M4" t="n">
-        <v>703.2833671973124</v>
+        <v>703.2833671973094</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866603</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>360.7106051633647</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>326.0456339133427</v>
@@ -27436,10 +27436,10 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V2" t="n">
-        <v>110.4171988549353</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>154.5378256375921</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>168.1462123806729</v>
       </c>
       <c r="D3" t="n">
-        <v>143.4266035206269</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27506,7 +27506,7 @@
         <v>56.59722706556381</v>
       </c>
       <c r="S3" t="n">
-        <v>158.6512997408977</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T3" t="n">
         <v>197.336797223147</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1326965532767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>201.7545231594656</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.1204091696615</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>175.8135181379255</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>162.684534490985</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>140.8587614152884</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4027833335613</v>
+        <v>162.8404967259184</v>
       </c>
       <c r="H4" t="n">
         <v>156.9975751224423</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.89018497740624</v>
+        <v>32.34636041377521</v>
       </c>
       <c r="R4" t="n">
-        <v>146.2836725955014</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S4" t="n">
         <v>213.7659454939867</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>221.1473687813943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>394.5986578414009</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>325.5074567455836</v>
       </c>
       <c r="I5" t="n">
-        <v>157.8967530017251</v>
+        <v>143.9578475744879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>50.25939512250091</v>
+        <v>58.79695839113901</v>
       </c>
       <c r="S5" t="n">
-        <v>177.9417458832737</v>
+        <v>164.0028404560365</v>
       </c>
       <c r="T5" t="n">
         <v>217.1256745993586</v>
       </c>
       <c r="U5" t="n">
-        <v>237.2976409135674</v>
+        <v>251.2365463408047</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152.5942782226301</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>133.5061601374015</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>136.613802664483</v>
       </c>
       <c r="H6" t="n">
-        <v>91.24903299260062</v>
+        <v>92.91055051952731</v>
       </c>
       <c r="I6" t="n">
-        <v>51.99530278000096</v>
+        <v>50.33378525307428</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>54.85152518778425</v>
+        <v>40.91261976054702</v>
       </c>
       <c r="S6" t="n">
         <v>158.1290443401915</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>191.7437903500671</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>165.8930747547001</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3792112354243</v>
+        <v>155.1018233351137</v>
       </c>
       <c r="H7" t="n">
-        <v>156.7879977408238</v>
+        <v>142.8490923135866</v>
       </c>
       <c r="I7" t="n">
-        <v>123.1140335818564</v>
+        <v>137.0529390090937</v>
       </c>
       <c r="J7" t="n">
-        <v>36.16826839089681</v>
+        <v>50.10717381813404</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.93480524014232</v>
+        <v>20.99589981290509</v>
       </c>
       <c r="R7" t="n">
         <v>149.7860719541821</v>
@@ -27825,13 +27825,13 @@
         <v>213.3551481109984</v>
       </c>
       <c r="T7" t="n">
-        <v>213.0542831840963</v>
+        <v>225.3316710844068</v>
       </c>
       <c r="U7" t="n">
         <v>286.2856601861436</v>
       </c>
       <c r="V7" t="n">
-        <v>238.1987378965908</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.6157534585003</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>298.0766734499736</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>226.5649534157026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>253.8122818672784</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>319.1904619798635</v>
+        <v>319.1904619798634</v>
       </c>
       <c r="I8" t="n">
-        <v>134.1168491125102</v>
+        <v>134.1168491125097</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.8859891910881</v>
+        <v>163.8859891910878</v>
       </c>
       <c r="T8" t="n">
-        <v>214.4255506313919</v>
+        <v>147.2293323103545</v>
       </c>
       <c r="U8" t="n">
-        <v>123.0691126378375</v>
+        <v>123.0691126378345</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>258.1198504510702</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>38.415095444884</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>44.5904107833324</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>16.95112418840355</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2837755514733</v>
+        <v>136.2837755514732</v>
       </c>
       <c r="H9" t="n">
-        <v>102.0005713020855</v>
+        <v>102.0005713020854</v>
       </c>
       <c r="I9" t="n">
-        <v>52.90991507887819</v>
+        <v>52.90991507887796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>34.36089443442246</v>
+        <v>34.36089443442204</v>
       </c>
       <c r="S9" t="n">
-        <v>151.9989354647686</v>
+        <v>151.9989354647685</v>
       </c>
       <c r="T9" t="n">
-        <v>83.0468142302493</v>
+        <v>195.8932263211959</v>
       </c>
       <c r="U9" t="n">
-        <v>97.75357403311703</v>
+        <v>225.8716622380974</v>
       </c>
       <c r="V9" t="n">
-        <v>104.6824989444449</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>92.92657311252817</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>77.56460757232102</v>
       </c>
     </row>
     <row r="10">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>39.1287328936445</v>
       </c>
       <c r="D10" t="n">
-        <v>35.7690609272657</v>
+        <v>66.31470102847329</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>18.31587444158583</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.98443938522579</v>
+        <v>167.1025275902061</v>
       </c>
       <c r="H10" t="n">
-        <v>154.3280286042479</v>
+        <v>154.3280286042478</v>
       </c>
       <c r="I10" t="n">
-        <v>128.7323072056241</v>
+        <v>128.732307205624</v>
       </c>
       <c r="J10" t="n">
-        <v>30.54564010121064</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.76632291192047</v>
+        <v>11.76632291191999</v>
       </c>
       <c r="R10" t="n">
-        <v>137.3453691428277</v>
+        <v>9.227280937844164</v>
       </c>
       <c r="S10" t="n">
-        <v>208.5333067666057</v>
+        <v>208.5333067666056</v>
       </c>
       <c r="T10" t="n">
         <v>224.1494773275656</v>
@@ -28068,10 +28068,10 @@
         <v>286.2705683509498</v>
       </c>
       <c r="V10" t="n">
-        <v>124.0195551188477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>158.4049101316107</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221275</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221332</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221454</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221484</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221616</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221451</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221326</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="44">
@@ -30760,7 +30760,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221355</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
         <v>31.61020235221395</v>
@@ -31133,13 +31133,13 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L3" t="n">
-        <v>142.932331575087</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M3" t="n">
         <v>146.6963205296612</v>
       </c>
       <c r="N3" t="n">
-        <v>135.9039986909762</v>
+        <v>135.7196638785462</v>
       </c>
       <c r="O3" t="n">
         <v>147.1585310520873</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.980650812733172</v>
+        <v>1.980650812733185</v>
       </c>
       <c r="H8" t="n">
-        <v>20.28434013590361</v>
+        <v>20.28434013590374</v>
       </c>
       <c r="I8" t="n">
-        <v>76.3590404578957</v>
+        <v>76.35904045789619</v>
       </c>
       <c r="J8" t="n">
-        <v>168.1052619172122</v>
+        <v>168.1052619172133</v>
       </c>
       <c r="K8" t="n">
-        <v>251.9462108202075</v>
+        <v>251.9462108202091</v>
       </c>
       <c r="L8" t="n">
-        <v>312.5615531303903</v>
+        <v>312.5615531303923</v>
       </c>
       <c r="M8" t="n">
-        <v>347.7849520213339</v>
+        <v>347.7849520213361</v>
       </c>
       <c r="N8" t="n">
-        <v>353.412476143012</v>
+        <v>353.4124761430143</v>
       </c>
       <c r="O8" t="n">
-        <v>333.7173796238965</v>
+        <v>333.7173796238987</v>
       </c>
       <c r="P8" t="n">
-        <v>284.8200626845463</v>
+        <v>284.8200626845481</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.8880054535395</v>
+        <v>213.8880054535409</v>
       </c>
       <c r="R8" t="n">
-        <v>124.4170566153502</v>
+        <v>124.417056615351</v>
       </c>
       <c r="S8" t="n">
-        <v>45.13408039515721</v>
+        <v>45.1340803951575</v>
       </c>
       <c r="T8" t="n">
-        <v>8.670298932739467</v>
+        <v>8.670298932739522</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1584520650186537</v>
+        <v>0.1584520650186547</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.059741611737377</v>
+        <v>1.059741611737384</v>
       </c>
       <c r="H9" t="n">
-        <v>10.23487293441098</v>
+        <v>10.23487293441105</v>
       </c>
       <c r="I9" t="n">
-        <v>36.48671777253688</v>
+        <v>36.48671777253712</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1223423615563</v>
+        <v>100.1223423615569</v>
       </c>
       <c r="K9" t="n">
-        <v>171.1250303479606</v>
+        <v>171.1250303479617</v>
       </c>
       <c r="L9" t="n">
-        <v>230.0987214432406</v>
+        <v>230.098721443242</v>
       </c>
       <c r="M9" t="n">
-        <v>218.5508732282883</v>
+        <v>268.5143548687221</v>
       </c>
       <c r="N9" t="n">
-        <v>259.4598002883137</v>
+        <v>259.4598002883166</v>
       </c>
       <c r="O9" t="n">
-        <v>252.1394877715679</v>
+        <v>252.1394877715695</v>
       </c>
       <c r="P9" t="n">
-        <v>202.3641679465874</v>
+        <v>152.4006863061583</v>
       </c>
       <c r="Q9" t="n">
-        <v>135.2750871403711</v>
+        <v>135.275087140372</v>
       </c>
       <c r="R9" t="n">
-        <v>65.79693971822067</v>
+        <v>65.7969397182211</v>
       </c>
       <c r="S9" t="n">
-        <v>19.68423563906925</v>
+        <v>19.68423563906937</v>
       </c>
       <c r="T9" t="n">
-        <v>4.271502373625654</v>
+        <v>4.271502373625681</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06971984287745904</v>
+        <v>0.06971984287745948</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8884517682526469</v>
+        <v>0.8884517682526526</v>
       </c>
       <c r="H10" t="n">
-        <v>7.899143903191721</v>
+        <v>7.899143903191772</v>
       </c>
       <c r="I10" t="n">
-        <v>26.71816772163415</v>
+        <v>26.71816772163432</v>
       </c>
       <c r="J10" t="n">
-        <v>62.81354001546214</v>
+        <v>62.81354001546254</v>
       </c>
       <c r="K10" t="n">
-        <v>103.2219418024439</v>
+        <v>103.2219418024445</v>
       </c>
       <c r="L10" t="n">
-        <v>132.0885474363981</v>
+        <v>132.0885474363989</v>
       </c>
       <c r="M10" t="n">
-        <v>139.2688530907308</v>
+        <v>139.2688530907317</v>
       </c>
       <c r="N10" t="n">
-        <v>135.9573510454256</v>
+        <v>135.9573510454265</v>
       </c>
       <c r="O10" t="n">
-        <v>125.5786190253833</v>
+        <v>125.5786190253841</v>
       </c>
       <c r="P10" t="n">
-        <v>107.4542029530292</v>
+        <v>107.4542029530299</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.39572033977392</v>
+        <v>74.3957203397744</v>
       </c>
       <c r="R10" t="n">
-        <v>39.94802223434174</v>
+        <v>39.94802223434198</v>
       </c>
       <c r="S10" t="n">
-        <v>15.48329127036658</v>
+        <v>15.48329127036668</v>
       </c>
       <c r="T10" t="n">
-        <v>3.796112100715854</v>
+        <v>3.796112100715878</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04846100554105352</v>
+        <v>0.04846100554105384</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I14" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L14" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R14" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N15" t="n">
-        <v>616.0816594412372</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32169,22 +32169,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.943509024727</v>
+        <v>392.4972796419684</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>584.3932527497839</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32464,46 +32464,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869754</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O20" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R20" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879671</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>573.1387203886723</v>
+        <v>548.1235910649146</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691328</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32625,7 +32625,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32634,13 +32634,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
         <v>325.7840929246177</v>
@@ -32655,10 +32655,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32701,46 +32701,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,34 +32780,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>616.081659441237</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578285</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32862,7 +32862,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32871,13 +32871,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
         <v>325.7840929246177</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32938,46 +32938,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,34 +33017,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>554.7018671605763</v>
+        <v>176.0878742921109</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33099,7 +33099,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33108,13 +33108,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>135.7763377130019</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
         <v>443.9435090247271</v>
@@ -33269,22 +33269,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33743,22 +33743,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O36" t="n">
-        <v>530.1489483592447</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>209.0440289417418</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33971,31 +33971,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>457.1748150187216</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34220,13 +34220,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>272.5760810583992</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34366,7 +34366,7 @@
         <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383694</v>
       </c>
       <c r="K44" t="n">
         <v>653.6149895171637</v>
@@ -34378,7 +34378,7 @@
         <v>902.2459874654298</v>
       </c>
       <c r="N44" t="n">
-        <v>916.84527081176</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O44" t="n">
         <v>865.7509905565679</v>
@@ -34445,22 +34445,22 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247271</v>
+        <v>356.8015786407981</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>548.1235910649146</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
         <v>524.9860796892351</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="L2" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.377951795212859</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M3" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="N3" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="O3" t="n">
         <v>4.562286607642875</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>4.562286607642875</v>
@@ -34866,13 +34866,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="N4" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="L5" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>13.37571732916704</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35094,16 +35094,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13.37571732916704</v>
       </c>
       <c r="M7" t="n">
-        <v>13.37571732916704</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>13.93890542723723</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>31.85635977522693</v>
+        <v>31.85635977522853</v>
       </c>
       <c r="L8" t="n">
-        <v>76.7951381604031</v>
+        <v>76.79513816040509</v>
       </c>
       <c r="M8" t="n">
-        <v>117.4387187940611</v>
+        <v>117.4387187940634</v>
       </c>
       <c r="N8" t="n">
-        <v>123.9994125464211</v>
+        <v>123.9994125464234</v>
       </c>
       <c r="O8" t="n">
-        <v>103.6191682022098</v>
+        <v>103.619168202212</v>
       </c>
       <c r="P8" t="n">
-        <v>53.58706692927677</v>
+        <v>53.58706692927859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>33.28359137360158</v>
+        <v>33.28359137360266</v>
       </c>
       <c r="L9" t="n">
-        <v>91.5443416633664</v>
+        <v>91.54434166336785</v>
       </c>
       <c r="M9" t="n">
-        <v>76.41683930626994</v>
+        <v>126.3803209467038</v>
       </c>
       <c r="N9" t="n">
-        <v>128.1180882049803</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="O9" t="n">
-        <v>109.5432433271235</v>
+        <v>109.5432433271251</v>
       </c>
       <c r="P9" t="n">
-        <v>68.38976053225713</v>
+        <v>18.42627889182804</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>80.95244997656101</v>
+        <v>80.95244997656167</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="M10" t="n">
-        <v>65.37447580315451</v>
+        <v>57.10266922296581</v>
       </c>
       <c r="N10" t="n">
-        <v>128.1180882049803</v>
+        <v>8.271806580193271</v>
       </c>
       <c r="O10" t="n">
-        <v>128.1180882049803</v>
+        <v>128.1180882049833</v>
       </c>
       <c r="P10" t="n">
-        <v>104.7327622179227</v>
+        <v>104.7327622179234</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R14" t="n">
         <v>107.1851555440239</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>484.7399473579039</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
@@ -35814,13 +35814,13 @@
         <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488768</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030919</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.899754238157</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>254.6558406676093</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>441.7970083053394</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827692</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659488</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>441.7970083053389</v>
+        <v>416.7818789815813</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895099</v>
@@ -36294,10 +36294,10 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553048</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827692</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>484.7399473579036</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P24" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895093</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827692</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>412.567833238558</v>
+        <v>33.95384037009255</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
         <v>210.9575171831112</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K28" t="n">
         <v>277.1256801414978</v>
@@ -36759,13 +36759,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36832,7 +36832,7 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721838</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8.938711046335204</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
         <v>306.1020700503681</v>
@@ -36917,22 +36917,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37230,10 +37230,10 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
@@ -37391,22 +37391,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O36" t="n">
-        <v>387.5527039148003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193564</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>433.5251384721832</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
         <v>671.8997542381571</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>315.0407810967033</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817371</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895104</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37868,13 +37868,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>141.2343689750659</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116831</v>
       </c>
       <c r="K44" t="n">
         <v>433.5251384721832</v>
@@ -38026,7 +38026,7 @@
         <v>671.8997542381571</v>
       </c>
       <c r="N44" t="n">
-        <v>687.432207215169</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O44" t="n">
         <v>635.6527791348811</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503681</v>
+        <v>218.9601396664391</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>416.7818789815813</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749049</v>
